--- a/outputs-r202/test-c__Lentisphaeria.xlsx
+++ b/outputs-r202/test-c__Lentisphaeria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="51">
   <si>
     <t>Row</t>
   </si>
@@ -187,7 +187,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -197,14 +197,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -224,21 +228,21 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -252,21 +256,21 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -280,7 +284,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -294,7 +298,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -308,21 +312,21 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>2</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -336,8 +340,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
+      <c r="A9" s="3" t="s">
+        <v>9</v>
       </c>
       <c r="B9">
         <v>0.14234880000000005</v>
@@ -350,8 +354,8 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
+      <c r="A10" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="B10">
         <v>0.14234880000000005</v>
@@ -364,50 +368,50 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
+      <c r="A11" s="3" t="s">
+        <v>11</v>
       </c>
       <c r="B11">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>2</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>11</v>
+      <c r="A12" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>0.14234880000000005</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>0.85765119999999995</v>
       </c>
       <c r="D12">
         <v>2</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>12</v>
+      <c r="A13" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="B13">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>2</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
+      <c r="A14" s="3" t="s">
+        <v>14</v>
       </c>
       <c r="B14">
         <v>0.14234880000000005</v>
@@ -420,8 +424,8 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>14</v>
+      <c r="A15" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="B15">
         <v>0.14234880000000005</v>
@@ -434,8 +438,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>15</v>
+      <c r="A16" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="B16">
         <v>0.14234880000000005</v>
@@ -448,8 +452,8 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
+      <c r="A17" s="3" t="s">
+        <v>17</v>
       </c>
       <c r="B17">
         <v>0.14234880000000005</v>
@@ -462,36 +466,36 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="1" t="s">
-        <v>17</v>
+      <c r="A18" s="3" t="s">
+        <v>18</v>
       </c>
       <c r="B18">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="1" t="s">
-        <v>18</v>
+      <c r="A19" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="B19">
-        <v>0</v>
+        <v>0.14234880000000005</v>
       </c>
       <c r="C19">
-        <v>1</v>
+        <v>0.85765119999999995</v>
       </c>
       <c r="D19">
         <v>2</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="1" t="s">
-        <v>19</v>
+      <c r="A20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="B20">
         <v>0.14234880000000005</v>
@@ -504,8 +508,8 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
+      <c r="A21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B21">
         <v>0.14234880000000005</v>
@@ -518,22 +522,22 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="1" t="s">
-        <v>21</v>
+      <c r="A22" s="3" t="s">
+        <v>22</v>
       </c>
       <c r="B22">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C22">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D22">
         <v>2</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="1" t="s">
-        <v>22</v>
+      <c r="A23" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B23">
         <v>0.14234880000000005</v>
@@ -546,8 +550,8 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="1" t="s">
-        <v>23</v>
+      <c r="A24" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B24">
         <v>0.14234880000000005</v>
@@ -560,8 +564,8 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
+      <c r="A25" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B25">
         <v>0.14234880000000005</v>
@@ -574,8 +578,8 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="1" t="s">
-        <v>25</v>
+      <c r="A26" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="B26">
         <v>0.14234880000000005</v>
@@ -588,8 +592,8 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="1" t="s">
-        <v>26</v>
+      <c r="A27" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0.14234880000000005</v>
@@ -602,8 +606,8 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="1" t="s">
-        <v>27</v>
+      <c r="A28" s="3" t="s">
+        <v>29</v>
       </c>
       <c r="B28">
         <v>0.14234880000000005</v>
@@ -616,8 +620,8 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="1" t="s">
-        <v>28</v>
+      <c r="A29" s="3" t="s">
+        <v>30</v>
       </c>
       <c r="B29">
         <v>0.14234880000000005</v>
@@ -630,8 +634,8 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="1" t="s">
-        <v>29</v>
+      <c r="A30" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="B30">
         <v>0.14234880000000005</v>
@@ -644,8 +648,8 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="1" t="s">
-        <v>30</v>
+      <c r="A31" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B31">
         <v>0.14234880000000005</v>
@@ -658,8 +662,8 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="1" t="s">
-        <v>31</v>
+      <c r="A32" s="3" t="s">
+        <v>33</v>
       </c>
       <c r="B32">
         <v>0.14234880000000005</v>
@@ -672,22 +676,22 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="1" t="s">
-        <v>32</v>
+      <c r="A33" s="3" t="s">
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C33">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D33">
         <v>2</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="1" t="s">
-        <v>33</v>
+      <c r="A34" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B34">
         <v>0.14234880000000005</v>
@@ -700,22 +704,22 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="1" t="s">
-        <v>34</v>
+      <c r="A35" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C35">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D35">
         <v>2</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="1" t="s">
-        <v>35</v>
+      <c r="A36" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="B36">
         <v>0.14234880000000005</v>
@@ -728,22 +732,22 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="1" t="s">
-        <v>36</v>
+      <c r="A37" s="3" t="s">
+        <v>39</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.14234880000000005</v>
       </c>
       <c r="C37">
-        <v>1</v>
+        <v>0.85765119999999995</v>
       </c>
       <c r="D37">
         <v>2</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" s="1" t="s">
-        <v>37</v>
+      <c r="A38" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="B38">
         <v>0.14234880000000005</v>
@@ -756,8 +760,8 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="1" t="s">
-        <v>38</v>
+      <c r="A39" s="3" t="s">
+        <v>41</v>
       </c>
       <c r="B39">
         <v>0.14234880000000005</v>
@@ -770,36 +774,36 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" s="1" t="s">
-        <v>39</v>
+      <c r="A40" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="B40">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D40">
         <v>2</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="1" t="s">
-        <v>40</v>
+      <c r="A41" s="3" t="s">
+        <v>43</v>
       </c>
       <c r="B41">
-        <v>0.14234880000000005</v>
+        <v>0</v>
       </c>
       <c r="C41">
-        <v>0.85765119999999995</v>
+        <v>1</v>
       </c>
       <c r="D41">
         <v>2</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="1" t="s">
-        <v>41</v>
+      <c r="A42" s="3" t="s">
+        <v>44</v>
       </c>
       <c r="B42">
         <v>0.14234880000000005</v>
@@ -812,36 +816,36 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="1" t="s">
-        <v>42</v>
+      <c r="A43" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>0.14234880000000005</v>
       </c>
       <c r="C43">
-        <v>1</v>
+        <v>0.85765119999999995</v>
       </c>
       <c r="D43">
         <v>2</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="1" t="s">
-        <v>43</v>
+      <c r="A44" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="B44">
-        <v>0</v>
+        <v>0.14234880000000005</v>
       </c>
       <c r="C44">
-        <v>1</v>
+        <v>0.85765119999999995</v>
       </c>
       <c r="D44">
         <v>2</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="1" t="s">
-        <v>44</v>
+      <c r="A45" s="3" t="s">
+        <v>47</v>
       </c>
       <c r="B45">
         <v>0.14234880000000005</v>
